--- a/Model.xlsx
+++ b/Model.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Gopath\src\github.com\Applejan\steelTower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GOLANG\src\github.com\applejan\steelTower\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6855" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="35" r:id="rId1"/>
-    <sheet name="Connectivity - Frame" sheetId="28" r:id="rId2"/>
-    <sheet name="Case - Modal 1 - General" sheetId="24" r:id="rId3"/>
-    <sheet name="Case - RS 1 - General" sheetId="25" r:id="rId4"/>
-    <sheet name="Case - RS 2 - Load Assignments" sheetId="26" r:id="rId5"/>
+    <sheet name="Connectivity - Frame" sheetId="28" state="hidden" r:id="rId2"/>
+    <sheet name="Case - Modal 1 - General" sheetId="24" state="hidden" r:id="rId3"/>
+    <sheet name="Case - RS 1 - General" sheetId="25" state="hidden" r:id="rId4"/>
+    <sheet name="Case - RS 2 - Load Assignments" sheetId="26" state="hidden" r:id="rId5"/>
     <sheet name="Case - Static 1 - Load Assigns" sheetId="23" state="hidden" r:id="rId6"/>
     <sheet name="Combination Definitions" sheetId="12" state="hidden" r:id="rId7"/>
     <sheet name="Frame Loads - Distributed" sheetId="34" r:id="rId8"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="275">
   <si>
     <t>TABLE:  Program Control</t>
   </si>
@@ -329,18 +329,9 @@
     <t>KN-s2/m</t>
   </si>
   <si>
-    <t>GB-SPWSP273X6</t>
-  </si>
-  <si>
     <t>Pipe</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>c:\program files\computers and structures\sap2000 20\chinese.pro</t>
-  </si>
-  <si>
     <t>Imported 2018/9/12 9:19:14 from Chinese.pro</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>TABLE:  Combination Definitions</t>
   </si>
   <si>
@@ -776,9 +764,6 @@
     <t>MatProp</t>
   </si>
   <si>
-    <t>N.A.</t>
-  </si>
-  <si>
     <t>TABLE:  Frame Loads - Distributed</t>
   </si>
   <si>
@@ -809,28 +794,7 @@
     <t>KN/m</t>
   </si>
   <si>
-    <t>Force</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>RelDist</t>
-  </si>
-  <si>
-    <t>6eaac28f-9ee3-4c17-9d8d-db8be3407c05</t>
-  </si>
-  <si>
-    <t>b61c053c-29f3-4a55-9cb8-c27e92fc24fb</t>
-  </si>
-  <si>
-    <t>fd471c20-463c-4f81-955f-f63a7bf46ae4</t>
-  </si>
-  <si>
-    <t>95dccf23-f4a5-45d6-8294-d191a79160ed</t>
-  </si>
-  <si>
-    <t>259285c9-6e9e-4324-a863-f6a08831b331</t>
   </si>
   <si>
     <t>Name</t>
@@ -879,6 +843,42 @@
   <si>
     <t>Thick</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCE</t>
+  </si>
+  <si>
+    <t>Pipe650*10</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.72</t>
   </si>
 </sst>
 </file>
@@ -982,11 +982,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,6 +1013,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1308,16 +1311,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B2" s="7">
         <v>35</v>
@@ -1326,16 +1329,16 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B4" s="7">
         <v>0.45</v>
@@ -1344,29 +1347,29 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1762,11 +1765,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1780,7 +1783,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1790,22 +1793,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1830,102 +1833,387 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>95</v>
       </c>
-      <c r="F8" t="s">
-        <v>110</v>
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +2243,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1967,28 +2255,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2019,7 +2307,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2034,7 +2322,7 @@
         <v>0.08</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G4">
         <v>0.4</v>
@@ -2045,7 +2333,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>0.1</v>
@@ -2056,7 +2344,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -2067,7 +2355,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>0.6</v>
@@ -2078,7 +2366,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -2089,7 +2377,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2100,7 +2388,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B10">
         <v>1.2</v>
@@ -2111,7 +2399,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B11">
         <v>1.4</v>
@@ -2122,7 +2410,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B12">
         <v>1.6</v>
@@ -2133,7 +2421,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <v>1.8</v>
@@ -2144,7 +2432,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2155,7 +2443,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2172,11 +2460,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2195,7 +2483,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2209,34 +2497,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -2276,16 +2564,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2294,10 +2582,10 @@
         <v>20</v>
       </c>
       <c r="H4">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2308,31 +2596,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D5">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -2340,31 +2625,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D6">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -2372,31 +2654,28 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D7">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2404,31 +2683,28 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D8">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -2436,31 +2712,898 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D9">
-        <v>2.1450996398925799E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-1.6500949859619099E-3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>21</v>
       </c>
-      <c r="H9">
-        <v>2.1450996398925799E-2</v>
-      </c>
-      <c r="I9">
-        <v>-1.6500949859619099E-3</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>31</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>32</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>33</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>34</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +3628,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2496,25 +3639,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2597,7 +3740,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2616,43 +3759,43 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>32</v>
@@ -2710,142 +3853,142 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" t="s">
         <v>106</v>
-      </c>
-      <c r="I4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" t="s">
-        <v>109</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
         <v>166</v>
       </c>
-      <c r="G7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J7" t="s">
-        <v>170</v>
-      </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +4016,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2882,16 +4025,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
@@ -2916,10 +4059,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2927,16 +4070,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +4109,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2977,25 +4120,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -3023,7 +4166,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -3038,7 +4181,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3514,11 +4657,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3533,7 +4676,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3545,28 +4688,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3597,132 +4740,402 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2.1450996398925799E-2</v>
-      </c>
-      <c r="G4">
-        <v>-1.6500949859619099E-3</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2.1450996398925799E-2</v>
-      </c>
-      <c r="G5">
-        <v>-1.6500949859619099E-3</v>
-      </c>
-      <c r="H5">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2.1450996398925799E-2</v>
-      </c>
-      <c r="G6">
-        <v>-1.6500949859619099E-3</v>
-      </c>
-      <c r="H6">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2.1450996398925799E-2</v>
-      </c>
-      <c r="G7">
-        <v>-1.6500949859619099E-3</v>
-      </c>
-      <c r="H7">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2.1450996398925799E-2</v>
-      </c>
-      <c r="G8">
-        <v>-1.6500949859619099E-3</v>
-      </c>
-      <c r="H8">
-        <v>4.5</v>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3753,7 +5166,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3765,28 +5178,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3803,10 +5216,10 @@
         <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>40</v>
@@ -3817,10 +5230,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -3871,7 +5284,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3886,37 +5299,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -3927,10 +5340,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -3956,10 +5369,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3968,16 +5381,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I4">
         <v>0.05</v>
@@ -4015,7 +5428,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4026,25 +5439,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -4067,24 +5480,24 @@
         <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4118,7 +5531,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4126,16 +5539,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4154,13 +5567,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4168,13 +5581,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4209,7 +5622,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4225,34 +5638,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
@@ -4297,45 +5710,45 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4343,45 +5756,45 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F6">
         <v>1.2</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F7">
         <v>1.4</v>
@@ -4389,45 +5802,45 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8">
         <v>1.2</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <v>1.4</v>
@@ -4435,13 +5848,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F10">
         <v>1.3</v>
@@ -4455,11 +5868,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4475,7 +5888,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4492,40 +5905,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>32</v>
@@ -4563,10 +5976,10 @@
         <v>89</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>14</v>
@@ -4574,207 +5987,702 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>258</v>
+        <v>250</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>259</v>
+        <v>250</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.49</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>260</v>
+        <v>250</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>261</v>
+        <v>250</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8" t="s">
-        <v>262</v>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>250</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" t="s">
+        <v>250</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" t="s">
+        <v>250</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>266</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4785,9 +6693,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -5075,109 +6983,600 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>650</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>96</v>
       </c>
-      <c r="D4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F4">
-        <v>5.0299999999999997E-3</v>
-      </c>
-      <c r="G4">
-        <v>8.9741672000000005E-5</v>
-      </c>
-      <c r="H4">
-        <v>4.8882399999999998E-5</v>
-      </c>
-      <c r="I4">
-        <v>4.8882399999999998E-5</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>2.6034394531250001E-3</v>
-      </c>
-      <c r="L4">
-        <v>2.6034394531250001E-3</v>
-      </c>
-      <c r="M4">
-        <v>3.5811282051282099E-4</v>
-      </c>
-      <c r="N4">
-        <v>3.5811282051282099E-4</v>
-      </c>
-      <c r="O4">
-        <v>4.2780599999999998E-4</v>
-      </c>
-      <c r="P4">
-        <v>4.2780599999999998E-4</v>
-      </c>
-      <c r="Q4">
-        <v>9.8580784000509306E-2</v>
-      </c>
-      <c r="R4">
-        <v>9.8580784000509306E-2</v>
-      </c>
-      <c r="S4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4">
-        <v>1.93655</v>
-      </c>
-      <c r="W4">
-        <v>0.19742750000000001</v>
-      </c>
-      <c r="X4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="s">
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="AH4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>99</v>
+      <c r="D5">
+        <v>650</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>650</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>650</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>650</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <v>650</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>650</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>650</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12">
+        <v>650</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>650</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>650</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>650</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>650</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <v>650</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>650</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>650</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>650</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>650</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <v>650</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23">
+        <v>650</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24">
+        <v>650</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>650</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>650</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <v>650</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <v>650</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>650</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <v>650</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>650</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>650</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33">
+        <v>650</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34">
+        <v>650</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35">
+        <v>650</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <v>650</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37">
+        <v>650</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38">
+        <v>650</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Model.xlsx
+++ b/Model.xlsx
@@ -3,34 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GOLANG\src\github.com\applejan\steelTower\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6855" firstSheet="8" activeTab="8"/>
+    <workbookView windowHeight="6855" windowWidth="11970" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="35" r:id="rId1"/>
-    <sheet name="Connectivity - Frame" sheetId="28" state="hidden" r:id="rId2"/>
-    <sheet name="Case - Modal 1 - General" sheetId="24" state="hidden" r:id="rId3"/>
-    <sheet name="Case - RS 1 - General" sheetId="25" state="hidden" r:id="rId4"/>
-    <sheet name="Case - RS 2 - Load Assignments" sheetId="26" state="hidden" r:id="rId5"/>
-    <sheet name="Case - Static 1 - Load Assigns" sheetId="23" state="hidden" r:id="rId6"/>
-    <sheet name="Combination Definitions" sheetId="12" state="hidden" r:id="rId7"/>
-    <sheet name="Frame Loads - Distributed" sheetId="34" r:id="rId8"/>
-    <sheet name="Frame Props 01 - General" sheetId="8" r:id="rId9"/>
-    <sheet name="Frame Section Assignments" sheetId="30" r:id="rId10"/>
-    <sheet name="Func - Resp Spec - Chinese 2010" sheetId="13" state="hidden" r:id="rId11"/>
-    <sheet name="Joint Coordinates" sheetId="27" r:id="rId12"/>
-    <sheet name="Joint Restraint Assignments" sheetId="29" state="hidden" r:id="rId13"/>
-    <sheet name="Load Case Definitions" sheetId="22" state="hidden" r:id="rId14"/>
-    <sheet name="Load Pattern Definitions" sheetId="10" state="hidden" r:id="rId15"/>
-    <sheet name="Mass Source" sheetId="20" state="hidden" r:id="rId16"/>
-    <sheet name="MatProp 01 - General" sheetId="2" state="hidden" r:id="rId17"/>
-    <sheet name="MatProp 03a - Steel Data" sheetId="4" state="hidden" r:id="rId18"/>
-    <sheet name="Program Control" sheetId="1" state="hidden" r:id="rId19"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input" sheetId="35" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connectivity - Frame" sheetId="28" relationships:id="rId2" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Case - Modal 1 - General" sheetId="24" relationships:id="rId3" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Case - RS 1 - General" sheetId="25" relationships:id="rId4" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Case - RS 2 - Load Assignments" sheetId="26" relationships:id="rId5" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Case - Static 1 - Load Assigns" sheetId="23" relationships:id="rId6" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination Definitions" sheetId="12" relationships:id="rId7" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Frame Loads - Distributed" sheetId="34" relationships:id="rId8"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Frame Props 01 - General" sheetId="8" relationships:id="rId9"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Frame Section Assignments" sheetId="30" relationships:id="rId10"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Func - Resp Spec - Chinese 2010" sheetId="13" relationships:id="rId11" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joint Coordinates" sheetId="27" relationships:id="rId12"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joint Restraint Assignments" sheetId="29" relationships:id="rId13" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Load Case Definitions" sheetId="22" relationships:id="rId14" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Load Pattern Definitions" sheetId="10" relationships:id="rId15" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mass Source" sheetId="20" relationships:id="rId16" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatProp 01 - General" sheetId="2" relationships:id="rId17" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatProp 03a - Steel Data" sheetId="4" relationships:id="rId18" state="hidden"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Program Control" sheetId="1" relationships:id="rId19" state="hidden"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="300">
   <si>
     <t>TABLE:  Program Control</t>
   </si>
@@ -851,41 +846,116 @@
     <t>Pipe650*10</t>
   </si>
   <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.72</t>
+    <t>RelDist</t>
+  </si>
+  <si>
+    <t>Pipe635*10</t>
+  </si>
+  <si>
+    <t>Pipe620*10</t>
+  </si>
+  <si>
+    <t>Pipe605*10</t>
+  </si>
+  <si>
+    <t>Pipe590*10</t>
+  </si>
+  <si>
+    <t>Pipe575*10</t>
+  </si>
+  <si>
+    <t>Pipe560*10</t>
+  </si>
+  <si>
+    <t>Pipe545*10</t>
+  </si>
+  <si>
+    <t>Pipe530*10</t>
+  </si>
+  <si>
+    <t>Pipe515*10</t>
+  </si>
+  <si>
+    <t>Pipe500*8</t>
+  </si>
+  <si>
+    <t>Pipe485*8</t>
+  </si>
+  <si>
+    <t>Pipe470*8</t>
+  </si>
+  <si>
+    <t>Pipe455*8</t>
+  </si>
+  <si>
+    <t>Pipe440*8</t>
+  </si>
+  <si>
+    <t>Pipe425*8</t>
+  </si>
+  <si>
+    <t>Pipe410*8</t>
+  </si>
+  <si>
+    <t>Pipe395*8</t>
+  </si>
+  <si>
+    <t>Pipe380*8</t>
+  </si>
+  <si>
+    <t>Pipe365*8</t>
+  </si>
+  <si>
+    <t>Pipe350*8</t>
+  </si>
+  <si>
+    <t>Pipe335*8</t>
+  </si>
+  <si>
+    <t>Pipe320*8</t>
+  </si>
+  <si>
+    <t>Pipe305*8</t>
+  </si>
+  <si>
+    <t>Pipe290*8</t>
+  </si>
+  <si>
+    <t>Pipe275*8</t>
+  </si>
+  <si>
+    <t>Pipe260*8</t>
+  </si>
+  <si>
+    <t>Pipe245*8</t>
+  </si>
+  <si>
+    <t>Pipe230*8</t>
+  </si>
+  <si>
+    <t>Pipe215*8</t>
+  </si>
+  <si>
+    <t>Pipe200*6</t>
+  </si>
+  <si>
+    <t>Pipe185*6</t>
+  </si>
+  <si>
+    <t>Pipe170*6</t>
+  </si>
+  <si>
+    <t>Pipe155*6</t>
+  </si>
+  <si>
+    <t>Pipe140*6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,10 +990,16 @@
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -982,47 +1058,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="true" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1296,20 +1372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="true" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="26.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
         <v>251</v>
       </c>
@@ -1318,16 +1394,16 @@
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B2" s="7">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>254</v>
       </c>
@@ -1336,16 +1412,16 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B4" s="7">
-        <v>0.45</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>257</v>
       </c>
@@ -1354,14 +1430,14 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>259</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
         <v>260</v>
       </c>
@@ -1372,416 +1448,412 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="8">
-        <v>650</v>
+        <v>490</v>
       </c>
       <c r="C8" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="8">
         <v>2</v>
       </c>
       <c r="B9" s="8">
-        <v>635</v>
+        <f>B8-14.5</f>
+        <v>475.5</v>
       </c>
       <c r="C9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="8">
-        <v>620</v>
+        <f t="shared" ref="B10:B17" si="0">B9-14.5</f>
+        <v>461</v>
       </c>
       <c r="C10" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="8">
-        <v>605</v>
+        <f t="shared" si="0"/>
+        <v>446.5</v>
       </c>
       <c r="C11" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="8">
         <v>5</v>
       </c>
       <c r="B12" s="8">
-        <v>590</v>
+        <f t="shared" si="0"/>
+        <v>432</v>
       </c>
       <c r="C12" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="8">
         <v>6</v>
       </c>
       <c r="B13" s="8">
-        <v>575</v>
+        <f t="shared" si="0"/>
+        <v>417.5</v>
       </c>
       <c r="C13" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="8">
         <v>7</v>
       </c>
       <c r="B14" s="8">
-        <v>560</v>
+        <f t="shared" si="0"/>
+        <v>403</v>
       </c>
       <c r="C14" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="8">
         <v>8</v>
       </c>
       <c r="B15" s="8">
-        <v>545</v>
+        <f t="shared" si="0"/>
+        <v>388.5</v>
       </c>
       <c r="C15" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="8">
         <v>9</v>
       </c>
       <c r="B16" s="8">
-        <v>530</v>
+        <f t="shared" si="0"/>
+        <v>374</v>
       </c>
       <c r="C16" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="8">
         <v>10</v>
       </c>
       <c r="B17" s="8">
-        <v>515</v>
+        <f t="shared" si="0"/>
+        <v>359.5</v>
       </c>
       <c r="C17" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="8">
         <v>11</v>
       </c>
       <c r="B18" s="8">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="C18" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="8">
         <v>12</v>
       </c>
       <c r="B19" s="8">
-        <v>485</v>
+        <f>B18-13.25</f>
+        <v>331.75</v>
       </c>
       <c r="C19" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="8">
         <v>13</v>
       </c>
       <c r="B20" s="8">
-        <v>470</v>
+        <f t="shared" ref="B20:B29" si="1">B19-13.25</f>
+        <v>318.5</v>
       </c>
       <c r="C20" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="8">
         <v>14</v>
       </c>
       <c r="B21" s="8">
-        <v>455</v>
+        <f t="shared" si="1"/>
+        <v>305.25</v>
       </c>
       <c r="C21" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="8">
         <v>15</v>
       </c>
       <c r="B22" s="8">
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>292</v>
       </c>
       <c r="C22" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="8">
         <v>16</v>
       </c>
       <c r="B23" s="8">
-        <v>425</v>
+        <f t="shared" si="1"/>
+        <v>278.75</v>
       </c>
       <c r="C23" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="8">
         <v>17</v>
       </c>
       <c r="B24" s="8">
-        <v>410</v>
+        <f t="shared" si="1"/>
+        <v>265.5</v>
       </c>
       <c r="C24" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="8">
         <v>18</v>
       </c>
       <c r="B25" s="8">
-        <v>395</v>
+        <f t="shared" si="1"/>
+        <v>252.25</v>
       </c>
       <c r="C25" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="8">
         <v>19</v>
       </c>
       <c r="B26" s="8">
-        <v>380</v>
+        <f t="shared" si="1"/>
+        <v>239</v>
       </c>
       <c r="C26" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="8">
         <v>20</v>
       </c>
       <c r="B27" s="8">
-        <v>365</v>
+        <f t="shared" si="1"/>
+        <v>225.75</v>
       </c>
       <c r="C27" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="8">
         <v>21</v>
       </c>
       <c r="B28" s="8">
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>212.5</v>
       </c>
       <c r="C28" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="8">
         <v>22</v>
       </c>
       <c r="B29" s="8">
-        <v>335</v>
+        <f t="shared" si="1"/>
+        <v>199.25</v>
       </c>
       <c r="C29" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="8">
         <v>23</v>
       </c>
       <c r="B30" s="8">
-        <v>320</v>
+        <v>186</v>
       </c>
       <c r="C30" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="8">
         <v>24</v>
       </c>
       <c r="B31" s="8">
-        <v>305</v>
+        <f>B30-13.2</f>
+        <v>172.8</v>
       </c>
       <c r="C31" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="8">
         <v>25</v>
       </c>
       <c r="B32" s="8">
-        <v>290</v>
+        <f t="shared" ref="B32:B35" si="2">B31-13.2</f>
+        <v>159.60000000000002</v>
       </c>
       <c r="C32" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="8">
         <v>26</v>
       </c>
       <c r="B33" s="8">
-        <v>275</v>
+        <f t="shared" si="2"/>
+        <v>146.40000000000003</v>
       </c>
       <c r="C33" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="8">
         <v>27</v>
       </c>
       <c r="B34" s="8">
-        <v>260</v>
+        <f t="shared" si="2"/>
+        <v>133.20000000000005</v>
       </c>
       <c r="C34" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="8">
         <v>28</v>
       </c>
       <c r="B35" s="8">
-        <v>245</v>
+        <f t="shared" si="2"/>
+        <v>120.00000000000004</v>
       </c>
       <c r="C35" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="8">
         <v>29</v>
       </c>
       <c r="B36" s="8">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="C36" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="8">
         <v>30</v>
       </c>
       <c r="B37" s="8">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="C37" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="8">
-        <v>31</v>
-      </c>
-      <c r="B38" s="8">
-        <v>200</v>
-      </c>
-      <c r="C38" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="8">
-        <v>32</v>
-      </c>
-      <c r="B39" s="8">
-        <v>185</v>
-      </c>
-      <c r="C39" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="8">
-        <v>33</v>
-      </c>
-      <c r="B40" s="8">
-        <v>170</v>
-      </c>
-      <c r="C40" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="8">
-        <v>34</v>
-      </c>
-      <c r="B41" s="8">
-        <v>155</v>
-      </c>
-      <c r="C41" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="8">
-        <v>35</v>
-      </c>
-      <c r="B42" s="8">
-        <v>140</v>
-      </c>
-      <c r="C42" s="8">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
+      <selection activeCell="F8" pane="bottomLeft" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14.5"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="13.25"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="4" style="0" width="15"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="9.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
@@ -1791,7 +1863,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>220</v>
       </c>
@@ -1811,7 +1883,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1831,337 +1903,337 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Pipe490*8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Pipe476*8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Pipe461*8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Pipe446*8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Pipe432*8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Pipe418*8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Pipe403*8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Pipe388*8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Pipe374*8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Pipe360*8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Pipe345*8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Pipe332*6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Pipe318*6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B17" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Pipe305*6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Pipe292*6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Pipe279*6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Pipe266*6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Pipe252*6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Pipe239*6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Pipe226*6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Pipe212*6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Pipe199*8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Pipe186*8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Pipe173*8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Pipe160*8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Pipe146*8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Pipe133*8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Pipe120*8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Pipe48*5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="str">
+        <v>Pipe</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Pipe48*5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2169,10 +2241,10 @@
         <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2180,10 +2252,10 @@
         <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2191,10 +2263,10 @@
         <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2202,10 +2274,10 @@
         <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2213,12 +2285,12 @@
         <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2459,29 +2531,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
+      <selection activeCell="G9" pane="bottomLeft" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="10.75"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="12"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="12.75"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13.875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="12"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="12.75"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="13.875"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="9.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
@@ -2495,7 +2567,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>209</v>
       </c>
@@ -2527,7 +2599,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -2559,15 +2631,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" t="s">
-        <v>218</v>
+      <c r="B4" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2591,15 +2663,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" t="s">
-        <v>218</v>
+      <c r="B5" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2620,15 +2692,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>218</v>
+      <c r="B6" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2649,15 +2721,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" t="s">
-        <v>218</v>
+      <c r="B7" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2678,15 +2750,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" t="s">
-        <v>218</v>
+      <c r="B8" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2707,15 +2779,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" t="s">
-        <v>218</v>
+      <c r="B9" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2736,15 +2808,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>218</v>
+      <c r="B10" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2765,15 +2837,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" t="s">
-        <v>218</v>
+      <c r="B11" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2794,15 +2866,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" t="s">
-        <v>218</v>
+      <c r="B12" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2823,15 +2895,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" t="s">
-        <v>218</v>
+      <c r="B13" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2852,15 +2924,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>218</v>
+      <c r="B14" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2881,15 +2953,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" t="s">
-        <v>218</v>
+      <c r="B15" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2910,15 +2982,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" t="s">
-        <v>218</v>
+      <c r="B16" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2939,15 +3011,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" t="s">
-        <v>218</v>
+      <c r="B17" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2968,15 +3040,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" t="s">
-        <v>218</v>
+      <c r="B18" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2997,15 +3069,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" t="s">
-        <v>218</v>
+      <c r="B19" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3026,15 +3098,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
+      <c r="B20" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3055,15 +3127,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
+      <c r="B21" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3084,15 +3156,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" t="s">
-        <v>218</v>
+      <c r="B22" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3113,15 +3185,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s">
-        <v>218</v>
+      <c r="B23" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3142,15 +3214,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" t="s">
-        <v>218</v>
+      <c r="B24" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3171,15 +3243,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" t="s">
-        <v>218</v>
+      <c r="B25" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3200,15 +3272,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" t="s">
-        <v>218</v>
+      <c r="B26" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3229,15 +3301,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" t="s">
-        <v>218</v>
+      <c r="B27" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3258,15 +3330,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" t="s">
-        <v>218</v>
+      <c r="B28" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3287,15 +3359,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" t="s">
-        <v>218</v>
+      <c r="B29" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3316,15 +3388,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" t="s">
-        <v>218</v>
+      <c r="B30" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3345,15 +3417,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" t="s">
-        <v>218</v>
+      <c r="B31" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3374,15 +3446,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" t="s">
-        <v>218</v>
+      <c r="B32" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3403,15 +3475,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" t="s">
-        <v>218</v>
+      <c r="B33" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3432,15 +3504,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" t="s">
-        <v>218</v>
+      <c r="B34" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Cartesian</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3461,7 +3533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3490,7 +3562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3519,7 +3591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3548,7 +3620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3577,7 +3649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3608,7 +3680,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -4656,25 +4728,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
+      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="1" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="12.75"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="13.875"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
@@ -4686,7 +4758,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>220</v>
       </c>
@@ -4712,7 +4784,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -4738,7 +4810,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4752,7 +4824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4766,7 +4838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4780,7 +4852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4794,7 +4866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4808,7 +4880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4819,7 +4891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4830,7 +4902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4841,7 +4913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4852,7 +4924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4863,7 +4935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4874,7 +4946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4885,7 +4957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4896,7 +4968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -4907,7 +4979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4918,7 +4990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4929,7 +5001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4940,7 +5012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -4951,7 +5023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4962,7 +5034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4973,7 +5045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4984,7 +5056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -4995,7 +5067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5006,7 +5078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -5017,7 +5089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -5028,7 +5100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -5039,7 +5111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -5050,7 +5122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -5061,7 +5133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -5072,7 +5144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -5083,7 +5155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -5094,7 +5166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -5105,7 +5177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -5116,7 +5188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -5127,7 +5199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -5140,7 +5212,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5867,26 +5939,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5:L26"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
+      <selection activeCell="K5" pane="bottomLeft" sqref="K5:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" customWidth="1"/>
-    <col min="6" max="10" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="9.625"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="4" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="10" min="6" style="0" width="10.75"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="12" min="11" style="0" width="9.625"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="40.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>240</v>
       </c>
@@ -5903,7 +5975,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>220</v>
       </c>
@@ -5944,7 +6016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -5985,743 +6057,1373 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" t="s">
-        <v>250</v>
+      <c r="B4" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C4" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D4" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E4" t="str">
+        <v>X</v>
+      </c>
+      <c r="F4" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4" s="9">
-        <v>0.49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.296</v>
+      </c>
+      <c r="L4">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" t="s">
-        <v>250</v>
+      <c r="B5" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C5" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D5" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E5" t="str">
+        <v>X</v>
+      </c>
+      <c r="F5" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="K5" s="9">
-        <v>0.49</v>
+        <v>0.288</v>
       </c>
       <c r="L5" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" t="s">
-        <v>250</v>
+      <c r="B6" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C6" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D6" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E6" t="str">
+        <v>X</v>
+      </c>
+      <c r="F6" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="K6" s="9">
-        <v>0.49</v>
+        <v>0.279</v>
       </c>
       <c r="L6" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E7" t="s">
-        <v>250</v>
+      <c r="B7" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C7" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D7" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E7" t="str">
+        <v>X</v>
+      </c>
+      <c r="F7" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7" s="9">
-        <v>0.49</v>
+        <v>0.27</v>
       </c>
       <c r="L7" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" t="s">
-        <v>250</v>
+      <c r="B8" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C8" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D8" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E8" t="str">
+        <v>X</v>
+      </c>
+      <c r="F8" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8" s="9">
-        <v>0.49</v>
+        <v>0.261</v>
       </c>
       <c r="L8" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" t="s">
-        <v>250</v>
+      <c r="B9" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C9" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D9" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E9" t="str">
+        <v>X</v>
+      </c>
+      <c r="F9" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9" s="9">
-        <v>0.49</v>
+        <v>0.253</v>
       </c>
       <c r="L9" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" t="s">
-        <v>250</v>
+      <c r="B10" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C10" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D10" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E10" t="str">
+        <v>X</v>
+      </c>
+      <c r="F10" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10" s="9">
-        <v>0.49</v>
+        <v>0.244</v>
       </c>
       <c r="L10" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" t="s">
-        <v>250</v>
+      <c r="B11" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C11" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D11" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E11" t="str">
+        <v>X</v>
+      </c>
+      <c r="F11" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
       <c r="K11" s="9">
-        <v>0.49</v>
+        <v>0.235</v>
       </c>
       <c r="L11" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E12" t="s">
-        <v>250</v>
+      <c r="B12" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C12" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D12" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E12" t="str">
+        <v>X</v>
+      </c>
+      <c r="F12" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
       <c r="K12" s="9">
-        <v>0.49</v>
+        <v>0.226</v>
       </c>
       <c r="L12" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" t="s">
-        <v>250</v>
+      <c r="B13" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C13" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D13" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E13" t="str">
+        <v>X</v>
+      </c>
+      <c r="F13" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13" s="9">
-        <v>0.49</v>
+        <v>0.217</v>
       </c>
       <c r="L13" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>263</v>
-      </c>
-      <c r="E14" t="s">
-        <v>250</v>
+      <c r="B14" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C14" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D14" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E14" t="str">
+        <v>X</v>
+      </c>
+      <c r="F14" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
       </c>
       <c r="K14" s="9">
-        <v>0.5</v>
+        <v>0.214</v>
       </c>
       <c r="L14" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" t="s">
-        <v>250</v>
+      <c r="B15" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C15" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D15" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E15" t="str">
+        <v>X</v>
+      </c>
+      <c r="F15" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="K15" s="9">
-        <v>0.51</v>
+        <v>0.212</v>
       </c>
       <c r="L15" s="9">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" t="s">
-        <v>250</v>
+      <c r="B16" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C16" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D16" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E16" t="str">
+        <v>X</v>
+      </c>
+      <c r="F16" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16" s="9">
-        <v>0.53</v>
+        <v>0.209</v>
       </c>
       <c r="L16" s="9">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" t="s">
-        <v>250</v>
+      <c r="B17" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C17" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D17" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E17" t="str">
+        <v>X</v>
+      </c>
+      <c r="F17" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17" s="9">
-        <v>0.54</v>
+        <v>0.205</v>
       </c>
       <c r="L17" s="9">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>263</v>
-      </c>
-      <c r="E18" t="s">
-        <v>250</v>
+      <c r="B18" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C18" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D18" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E18" t="str">
+        <v>X</v>
+      </c>
+      <c r="F18" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
       <c r="K18" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.201</v>
       </c>
       <c r="L18" s="9">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>263</v>
-      </c>
-      <c r="E19" t="s">
-        <v>250</v>
+      <c r="B19" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C19" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D19" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E19" t="str">
+        <v>X</v>
+      </c>
+      <c r="F19" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="K19" s="9">
-        <v>0.56000000000000005</v>
+        <v>0.196</v>
       </c>
       <c r="L19" s="9">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" t="s">
-        <v>250</v>
+      <c r="B20" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C20" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D20" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E20" t="str">
+        <v>X</v>
+      </c>
+      <c r="F20" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20" s="9">
-        <v>0.57999999999999996</v>
+        <v>0.19</v>
       </c>
       <c r="L20" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E21" t="s">
-        <v>250</v>
+      <c r="B21" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C21" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D21" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E21" t="str">
+        <v>X</v>
+      </c>
+      <c r="F21" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
       <c r="K21" s="9">
-        <v>0.59</v>
+        <v>0.184</v>
       </c>
       <c r="L21" s="9">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>263</v>
-      </c>
-      <c r="E22" t="s">
-        <v>250</v>
+      <c r="B22" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C22" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D22" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E22" t="str">
+        <v>X</v>
+      </c>
+      <c r="F22" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
       </c>
       <c r="K22" s="9">
-        <v>0.6</v>
+        <v>0.178</v>
       </c>
       <c r="L22" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E23" t="s">
-        <v>250</v>
+      <c r="B23" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C23" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D23" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E23" t="str">
+        <v>X</v>
+      </c>
+      <c r="F23" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
       <c r="K23" s="9">
-        <v>0.61</v>
+        <v>0.171</v>
       </c>
       <c r="L23" s="9">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>263</v>
-      </c>
-      <c r="E24" t="s">
-        <v>250</v>
+      <c r="B24" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C24" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D24" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E24" t="str">
+        <v>X</v>
+      </c>
+      <c r="F24" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="K24" s="9">
-        <v>0.62</v>
+        <v>0.163</v>
       </c>
       <c r="L24" s="9">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E25" t="s">
-        <v>250</v>
+      <c r="B25" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C25" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D25" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E25" t="str">
+        <v>X</v>
+      </c>
+      <c r="F25" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
       <c r="K25" s="9">
-        <v>0.62</v>
+        <v>0.155</v>
       </c>
       <c r="L25" s="9">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E26" t="s">
-        <v>250</v>
+      <c r="B26" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C26" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D26" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E26" t="str">
+        <v>X</v>
+      </c>
+      <c r="F26" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
       </c>
       <c r="K26" s="9">
-        <v>0.63</v>
+        <v>0.146</v>
       </c>
       <c r="L26" s="9">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>263</v>
-      </c>
-      <c r="E27" t="s">
-        <v>250</v>
-      </c>
-      <c r="K27" t="s">
-        <v>266</v>
-      </c>
-      <c r="L27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B27" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C27" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D27" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E27" t="str">
+        <v>X</v>
+      </c>
+      <c r="F27" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0.138</v>
+      </c>
+      <c r="L27">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>263</v>
-      </c>
-      <c r="E28" t="s">
-        <v>250</v>
-      </c>
-      <c r="K28" t="s">
-        <v>267</v>
-      </c>
-      <c r="L28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B28" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C28" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D28" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E28" t="str">
+        <v>X</v>
+      </c>
+      <c r="F28" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.129</v>
+      </c>
+      <c r="L28">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" t="s">
-        <v>250</v>
-      </c>
-      <c r="K29" t="s">
-        <v>268</v>
-      </c>
-      <c r="L29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B29" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C29" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D29" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E29" t="str">
+        <v>X</v>
+      </c>
+      <c r="F29" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0.12</v>
+      </c>
+      <c r="L29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E30" t="s">
-        <v>250</v>
-      </c>
-      <c r="K30" t="s">
-        <v>269</v>
-      </c>
-      <c r="L30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C30" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D30" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E30" t="str">
+        <v>X</v>
+      </c>
+      <c r="F30" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.11</v>
+      </c>
+      <c r="L30">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>263</v>
-      </c>
-      <c r="E31" t="s">
-        <v>250</v>
-      </c>
-      <c r="K31" t="s">
-        <v>269</v>
-      </c>
-      <c r="L31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C31" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D31" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E31" t="str">
+        <v>X</v>
+      </c>
+      <c r="F31" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0.101</v>
+      </c>
+      <c r="L31">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" t="s">
-        <v>250</v>
-      </c>
-      <c r="K32" t="s">
-        <v>270</v>
-      </c>
-      <c r="L32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C32" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D32" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E32" t="str">
+        <v>X</v>
+      </c>
+      <c r="F32" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.041</v>
+      </c>
+      <c r="L32">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" t="s">
-        <v>250</v>
-      </c>
-      <c r="K33" t="s">
-        <v>271</v>
-      </c>
-      <c r="L33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B33" t="str">
+        <v>WIND</v>
+      </c>
+      <c r="C33" t="str">
+        <v>GLOBAL</v>
+      </c>
+      <c r="D33" t="str">
+        <v>FORCE</v>
+      </c>
+      <c r="E33" t="str">
+        <v>X</v>
+      </c>
+      <c r="F33" t="str">
+        <v>RelDist</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0.041</v>
+      </c>
+      <c r="L33">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
       </c>
+      <c r="C34" t="s">
+        <v>207</v>
+      </c>
       <c r="D34" t="s">
         <v>263</v>
       </c>
       <c r="E34" t="s">
         <v>250</v>
       </c>
-      <c r="K34" t="s">
-        <v>272</v>
-      </c>
-      <c r="L34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0.7</v>
+      </c>
+      <c r="L34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
       </c>
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
       <c r="D35" t="s">
         <v>263</v>
       </c>
       <c r="E35" t="s">
         <v>250</v>
       </c>
-      <c r="K35" t="s">
-        <v>272</v>
-      </c>
-      <c r="L35" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0.7</v>
+      </c>
+      <c r="L35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
       </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
       <c r="D36" t="s">
         <v>263</v>
       </c>
       <c r="E36" t="s">
         <v>250</v>
       </c>
-      <c r="K36" t="s">
-        <v>273</v>
-      </c>
-      <c r="L36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0.71</v>
+      </c>
+      <c r="L36">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
       </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
       <c r="D37" t="s">
         <v>263</v>
       </c>
       <c r="E37" t="s">
         <v>250</v>
       </c>
-      <c r="K37" t="s">
-        <v>274</v>
-      </c>
-      <c r="L37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0.72</v>
+      </c>
+      <c r="L37">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>104</v>
       </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
       <c r="D38" t="s">
         <v>263</v>
       </c>
       <c r="E38" t="s">
         <v>250</v>
       </c>
-      <c r="K38" t="s">
-        <v>274</v>
-      </c>
-      <c r="L38" t="s">
-        <v>274</v>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0.72</v>
+      </c>
+      <c r="L38">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
+      <selection activeCell="D19" pane="bottomLeft" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9" customWidth="1"/>
-    <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" customWidth="1"/>
-    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="71.625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9" customWidth="1"/>
-    <col min="36" max="36" width="48.25" bestFit="1" customWidth="1"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="3" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="9" min="7" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="18" min="11" style="0" width="12.75"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="9.625"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="22" min="22" style="0" width="9.625"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="23" min="23" style="0" width="12"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="24" min="24" style="0" width="10.75"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="32" min="25" style="0" width="9.5"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="33" min="33" style="0" width="15"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="34" min="34" style="0" width="71.625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="35" min="35" style="0" width="9"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="36" min="36" style="0" width="48.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -6761,7 +7463,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -6871,7 +7573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -6981,522 +7683,522 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
+    <row r="4" spans="1:36">
+      <c r="A4" t="str">
+        <v>Pipe490*8</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D4">
-        <v>650</v>
+        <v>0.49</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0.008</v>
       </c>
       <c r="AJ4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
+    <row r="5" spans="1:36">
+      <c r="A5" t="str">
+        <v>Pipe476*8</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D5">
-        <v>650</v>
+        <v>0.475</v>
       </c>
       <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" t="str">
+        <v>Pipe461*8</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D6">
-        <v>650</v>
+        <v>0.461</v>
       </c>
       <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="str">
+        <v>Pipe446*8</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D7">
-        <v>650</v>
+        <v>0.447</v>
       </c>
       <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" t="str">
+        <v>Pipe432*8</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D8">
-        <v>650</v>
+        <v>0.432</v>
       </c>
       <c r="E8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" t="str">
+        <v>Pipe418*8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D9">
-        <v>650</v>
+        <v>0.417</v>
       </c>
       <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" t="str">
+        <v>Pipe403*8</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D10">
-        <v>650</v>
+        <v>0.403</v>
       </c>
       <c r="E10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" t="str">
+        <v>Pipe388*8</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D11">
-        <v>650</v>
+        <v>0.389</v>
       </c>
       <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" t="str">
+        <v>Pipe374*8</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D12">
-        <v>650</v>
+        <v>0.374</v>
       </c>
       <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" t="str">
+        <v>Pipe360*8</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D13">
-        <v>650</v>
+        <v>0.359</v>
       </c>
       <c r="E13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" t="str">
+        <v>Pipe345*8</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D14">
-        <v>650</v>
+        <v>0.345</v>
       </c>
       <c r="E14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" t="str">
+        <v>Pipe332*6</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D15">
-        <v>650</v>
+        <v>0.332</v>
       </c>
       <c r="E15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" t="str">
+        <v>Pipe318*6</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D16">
-        <v>650</v>
+        <v>0.319</v>
       </c>
       <c r="E16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="str">
+        <v>Pipe305*6</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D17">
-        <v>650</v>
+        <v>0.305</v>
       </c>
       <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="str">
+        <v>Pipe292*6</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D18">
-        <v>650</v>
+        <v>0.292</v>
       </c>
       <c r="E18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="str">
+        <v>Pipe279*6</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D19">
-        <v>650</v>
+        <v>0.279</v>
       </c>
       <c r="E19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="str">
+        <v>Pipe266*6</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D20">
-        <v>650</v>
+        <v>0.266</v>
       </c>
       <c r="E20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="str">
+        <v>Pipe252*6</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D21">
-        <v>650</v>
+        <v>0.252</v>
       </c>
       <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>264</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="str">
+        <v>Pipe239*6</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D22">
-        <v>650</v>
+        <v>0.239</v>
       </c>
       <c r="E22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="str">
+        <v>Pipe226*6</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D23">
-        <v>650</v>
+        <v>0.226</v>
       </c>
       <c r="E23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="str">
+        <v>Pipe212*6</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D24">
-        <v>650</v>
+        <v>0.212</v>
       </c>
       <c r="E24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>264</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="str">
+        <v>Pipe199*8</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D25">
-        <v>650</v>
+        <v>0.199</v>
       </c>
       <c r="E25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>264</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="str">
+        <v>Pipe186*8</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D26">
-        <v>650</v>
+        <v>0.186</v>
       </c>
       <c r="E26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>264</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="str">
+        <v>Pipe173*8</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D27">
-        <v>650</v>
+        <v>0.173</v>
       </c>
       <c r="E27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>264</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="str">
+        <v>Pipe160*8</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D28">
-        <v>650</v>
+        <v>0.16</v>
       </c>
       <c r="E28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>264</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="str">
+        <v>Pipe146*8</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D29">
-        <v>650</v>
+        <v>0.146</v>
       </c>
       <c r="E29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="str">
+        <v>Pipe133*8</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D30">
-        <v>650</v>
+        <v>0.133</v>
       </c>
       <c r="E30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="str">
+        <v>Pipe120*8</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D31">
-        <v>650</v>
+        <v>0.12</v>
       </c>
       <c r="E31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="str">
+        <v>Pipe48*5</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D32">
-        <v>650</v>
+        <v>0.048</v>
       </c>
       <c r="E32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="str">
+        <v>Pipe48*5</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Q235</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Pipe</v>
       </c>
       <c r="D33">
-        <v>650</v>
+        <v>0.048</v>
       </c>
       <c r="E33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
@@ -7505,15 +8207,15 @@
         <v>95</v>
       </c>
       <c r="D34">
-        <v>650</v>
+        <v>0.2</v>
       </c>
       <c r="E34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -7522,15 +8224,15 @@
         <v>95</v>
       </c>
       <c r="D35">
-        <v>650</v>
+        <v>0.18</v>
       </c>
       <c r="E35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -7539,15 +8241,15 @@
         <v>95</v>
       </c>
       <c r="D36">
-        <v>650</v>
+        <v>0.17</v>
       </c>
       <c r="E36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -7556,15 +8258,15 @@
         <v>95</v>
       </c>
       <c r="D37">
-        <v>650</v>
+        <v>0.15</v>
       </c>
       <c r="E37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -7573,14 +8275,14 @@
         <v>95</v>
       </c>
       <c r="D38">
-        <v>650</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Model.xlsx
+++ b/Model.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="289">
   <si>
     <t>TABLE:  Program Control</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>Pipe</t>
-  </si>
-  <si>
-    <t>Imported 2018/9/12 9:19:14 from Chinese.pro</t>
   </si>
   <si>
     <t>TABLE:  Load Pattern Definitions</t>
@@ -843,112 +840,82 @@
     <t>FORCE</t>
   </si>
   <si>
-    <t>Pipe650*10</t>
-  </si>
-  <si>
     <t>RelDist</t>
   </si>
   <si>
-    <t>Pipe635*10</t>
-  </si>
-  <si>
-    <t>Pipe620*10</t>
-  </si>
-  <si>
-    <t>Pipe605*10</t>
-  </si>
-  <si>
-    <t>Pipe590*10</t>
-  </si>
-  <si>
-    <t>Pipe575*10</t>
-  </si>
-  <si>
-    <t>Pipe560*10</t>
-  </si>
-  <si>
-    <t>Pipe545*10</t>
-  </si>
-  <si>
-    <t>Pipe530*10</t>
-  </si>
-  <si>
-    <t>Pipe515*10</t>
-  </si>
-  <si>
-    <t>Pipe500*8</t>
-  </si>
-  <si>
-    <t>Pipe485*8</t>
-  </si>
-  <si>
-    <t>Pipe470*8</t>
-  </si>
-  <si>
-    <t>Pipe455*8</t>
-  </si>
-  <si>
-    <t>Pipe440*8</t>
-  </si>
-  <si>
-    <t>Pipe425*8</t>
-  </si>
-  <si>
-    <t>Pipe410*8</t>
-  </si>
-  <si>
-    <t>Pipe395*8</t>
-  </si>
-  <si>
-    <t>Pipe380*8</t>
-  </si>
-  <si>
-    <t>Pipe365*8</t>
-  </si>
-  <si>
-    <t>Pipe350*8</t>
-  </si>
-  <si>
-    <t>Pipe335*8</t>
-  </si>
-  <si>
-    <t>Pipe320*8</t>
-  </si>
-  <si>
-    <t>Pipe305*8</t>
-  </si>
-  <si>
-    <t>Pipe290*8</t>
-  </si>
-  <si>
-    <t>Pipe275*8</t>
-  </si>
-  <si>
-    <t>Pipe260*8</t>
-  </si>
-  <si>
-    <t>Pipe245*8</t>
-  </si>
-  <si>
-    <t>Pipe230*8</t>
-  </si>
-  <si>
-    <t>Pipe215*8</t>
-  </si>
-  <si>
-    <t>Pipe200*6</t>
-  </si>
-  <si>
-    <t>Pipe185*6</t>
-  </si>
-  <si>
-    <t>Pipe170*6</t>
-  </si>
-  <si>
-    <t>Pipe155*6</t>
-  </si>
-  <si>
-    <t>Pipe140*6</t>
+    <t>Pipe490*8</t>
+  </si>
+  <si>
+    <t>Pipe476*8</t>
+  </si>
+  <si>
+    <t>Pipe461*8</t>
+  </si>
+  <si>
+    <t>Pipe446*8</t>
+  </si>
+  <si>
+    <t>Pipe432*8</t>
+  </si>
+  <si>
+    <t>Pipe418*8</t>
+  </si>
+  <si>
+    <t>Pipe403*8</t>
+  </si>
+  <si>
+    <t>Pipe388*8</t>
+  </si>
+  <si>
+    <t>Pipe374*8</t>
+  </si>
+  <si>
+    <t>Pipe360*8</t>
+  </si>
+  <si>
+    <t>Pipe345*8</t>
+  </si>
+  <si>
+    <t>Pipe332*6</t>
+  </si>
+  <si>
+    <t>Pipe318*6</t>
+  </si>
+  <si>
+    <t>Pipe305*6</t>
+  </si>
+  <si>
+    <t>Pipe292*6</t>
+  </si>
+  <si>
+    <t>Pipe279*6</t>
+  </si>
+  <si>
+    <t>Pipe266*6</t>
+  </si>
+  <si>
+    <t>Pipe252*6</t>
+  </si>
+  <si>
+    <t>Pipe239*6</t>
+  </si>
+  <si>
+    <t>Pipe226*6</t>
+  </si>
+  <si>
+    <t>Pipe212*6</t>
+  </si>
+  <si>
+    <t>Pipe199*8</t>
+  </si>
+  <si>
+    <t>Pipe186*8</t>
+  </si>
+  <si>
+    <t>Pipe173*8</t>
+  </si>
+  <si>
+    <t>Pipe160*8</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,9 +1056,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,8 +1339,8 @@
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:H40"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1387,16 +1351,16 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -1405,16 +1369,16 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" s="7">
         <v>0.56000000000000005</v>
@@ -1423,29 +1387,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1738,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="8">
-        <f t="shared" ref="B32:B35" si="2">B31-13.2</f>
+        <f t="shared" ref="B32" si="2">B31-13.2</f>
         <v>159.60000000000002</v>
       </c>
       <c r="C32" s="8">
@@ -1750,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="8">
-        <f t="shared" si="2"/>
+        <f>B32-13.2</f>
         <v>146.40000000000003</v>
       </c>
       <c r="C33" s="8">
@@ -1762,7 +1726,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="8">
-        <f t="shared" si="2"/>
+        <f>B33-13.2</f>
         <v>133.20000000000005</v>
       </c>
       <c r="C34" s="8">
@@ -1774,7 +1738,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="8">
-        <f t="shared" si="2"/>
+        <f>B34-13.2</f>
         <v>120.00000000000004</v>
       </c>
       <c r="C35" s="8">
@@ -1837,11 +1801,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
-      <selection activeCell="F8" pane="bottomLeft" sqref="F8"/>
+      <selection activeCell="D30" pane="bottomLeft" sqref="A30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1855,7 +1819,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1865,22 +1829,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1903,7 +1867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1914,7 +1878,7 @@
         <v>Pipe490*8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1925,7 +1889,7 @@
         <v>Pipe476*8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1936,7 +1900,7 @@
         <v>Pipe461*8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1947,7 +1911,7 @@
         <v>Pipe446*8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1958,7 +1922,7 @@
         <v>Pipe432*8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1969,7 +1933,7 @@
         <v>Pipe418*8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1980,7 +1944,7 @@
         <v>Pipe403*8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1991,7 +1955,7 @@
         <v>Pipe388*8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2002,7 +1966,7 @@
         <v>Pipe374*8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2013,7 +1977,7 @@
         <v>Pipe360*8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2024,7 +1988,7 @@
         <v>Pipe345*8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2035,7 +1999,7 @@
         <v>Pipe332*6</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2046,7 +2010,7 @@
         <v>Pipe318*6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2057,7 +2021,7 @@
         <v>Pipe305*6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2068,7 +2032,7 @@
         <v>Pipe292*6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2079,7 +2043,7 @@
         <v>Pipe279*6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2090,7 +2054,7 @@
         <v>Pipe266*6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2101,7 +2065,7 @@
         <v>Pipe252*6</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2112,7 +2076,7 @@
         <v>Pipe239*6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2123,7 +2087,7 @@
         <v>Pipe226*6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2134,7 +2098,7 @@
         <v>Pipe212*6</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2145,7 +2109,7 @@
         <v>Pipe199*8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2156,7 +2120,7 @@
         <v>Pipe186*8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2167,7 +2131,7 @@
         <v>Pipe173*8</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2178,7 +2142,7 @@
         <v>Pipe160*8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2189,7 +2153,7 @@
         <v>Pipe146*8</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2200,7 +2164,7 @@
         <v>Pipe133*8</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2211,7 +2175,7 @@
         <v>Pipe120*8</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2222,7 +2186,7 @@
         <v>Pipe48*5</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2231,61 +2195,6 @@
       </c>
       <c r="D33" t="str">
         <v>Pipe48*5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2315,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2327,28 +2236,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2379,7 +2288,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2394,7 +2303,7 @@
         <v>0.08</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4">
         <v>0.4</v>
@@ -2405,7 +2314,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>0.1</v>
@@ -2416,7 +2325,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -2427,7 +2336,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>0.6</v>
@@ -2438,7 +2347,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -2449,7 +2358,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2460,7 +2369,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10">
         <v>1.2</v>
@@ -2471,7 +2380,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>1.4</v>
@@ -2482,7 +2391,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12">
         <v>1.6</v>
@@ -2493,7 +2402,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13">
         <v>1.8</v>
@@ -2504,7 +2413,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2515,7 +2424,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2532,11 +2441,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
-      <selection activeCell="G9" pane="bottomLeft" sqref="G9"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A13" ySplit="3"/>
+      <selection activeCell="E38" pane="bottomLeft" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2555,7 +2464,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2569,34 +2478,34 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2631,7 +2540,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2650,9 +2559,6 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -2663,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2692,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2721,7 +2627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2750,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2779,7 +2685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2808,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2837,7 +2743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2866,7 +2772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2895,7 +2801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2924,7 +2830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2953,7 +2859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2982,7 +2888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3011,7 +2917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3040,7 +2946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3069,7 +2975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3098,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3127,7 +3033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3156,7 +3062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3185,7 +3091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3214,7 +3120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3243,7 +3149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3272,7 +3178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3301,7 +3207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3330,7 +3236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3359,7 +3265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3388,7 +3294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3417,7 +3323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3446,7 +3352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3475,7 +3381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3504,7 +3410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3531,151 +3437,6 @@
       </c>
       <c r="J34">
         <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>31</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>32</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>33</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" t="s">
-        <v>218</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>34</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" t="s">
-        <v>218</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>35</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3461,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3711,25 +3472,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -3812,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3831,43 +3592,43 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>32</v>
@@ -3925,142 +3686,142 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>157</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>158</v>
       </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" t="s">
-        <v>159</v>
-      </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" t="s">
         <v>160</v>
-      </c>
-      <c r="N4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
         <v>162</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
         <v>157</v>
       </c>
-      <c r="G5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" t="s">
-        <v>158</v>
-      </c>
       <c r="J5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>157</v>
       </c>
-      <c r="G6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" t="s">
         <v>105</v>
-      </c>
-      <c r="I6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" t="s">
-        <v>106</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" t="s">
         <v>168</v>
       </c>
-      <c r="D7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" t="s">
-        <v>169</v>
-      </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4088,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4097,16 +3858,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
@@ -4131,10 +3892,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4142,16 +3903,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>105</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4181,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4192,25 +3953,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -4238,7 +3999,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -4253,7 +4014,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4729,7 +4490,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
@@ -4748,7 +4509,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4760,28 +4521,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4810,7 +4571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4820,11 +4581,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4834,11 +4592,8 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4848,11 +4603,8 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4862,11 +4614,8 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4876,11 +4625,8 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4891,7 +4637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4902,7 +4648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4913,7 +4659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4924,7 +4670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4935,7 +4681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4946,7 +4692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4957,7 +4703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4968,7 +4714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17">
       <c r="A17">
         <v>14</v>
       </c>
@@ -4979,7 +4725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4990,7 +4736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5001,7 +4747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5012,7 +4758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5023,7 +4769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5034,7 +4780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5045,7 +4791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5056,7 +4802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5067,7 +4813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5078,7 +4824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27">
       <c r="A27">
         <v>24</v>
       </c>
@@ -5089,7 +4835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28">
       <c r="A28">
         <v>25</v>
       </c>
@@ -5100,7 +4846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29">
       <c r="A29">
         <v>26</v>
       </c>
@@ -5111,7 +4857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30">
       <c r="A30">
         <v>27</v>
       </c>
@@ -5122,7 +4868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31">
       <c r="A31">
         <v>28</v>
       </c>
@@ -5133,7 +4879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32">
       <c r="A32">
         <v>29</v>
       </c>
@@ -5144,7 +4890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33">
       <c r="A33">
         <v>30</v>
       </c>
@@ -5153,61 +4899,6 @@
       </c>
       <c r="C33">
         <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>31</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>32</v>
-      </c>
-      <c r="C35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>33</v>
-      </c>
-      <c r="C36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>34</v>
-      </c>
-      <c r="C37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>35</v>
-      </c>
-      <c r="C38">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5238,7 +4929,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5250,28 +4941,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -5288,10 +4979,10 @@
         <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>40</v>
@@ -5302,10 +4993,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -5356,7 +5047,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5371,37 +5062,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -5412,10 +5103,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -5441,10 +5132,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5453,16 +5144,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" t="s">
         <v>197</v>
       </c>
-      <c r="F4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>198</v>
-      </c>
-      <c r="H4" t="s">
-        <v>199</v>
       </c>
       <c r="I4">
         <v>0.05</v>
@@ -5500,7 +5191,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5511,25 +5202,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -5552,24 +5243,24 @@
         <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" t="s">
         <v>206</v>
       </c>
-      <c r="D4" t="s">
-        <v>207</v>
-      </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5603,7 +5294,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5611,16 +5302,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5639,13 +5330,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5653,13 +5344,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5694,7 +5385,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5710,34 +5401,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
@@ -5782,45 +5473,45 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5828,45 +5519,45 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>1.2</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7">
         <v>1.4</v>
@@ -5874,45 +5565,45 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>1.2</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <v>1.4</v>
@@ -5920,13 +5611,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
         <v>122</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>123</v>
-      </c>
-      <c r="E10" t="s">
-        <v>124</v>
       </c>
       <c r="F10">
         <v>1.3</v>
@@ -5940,11 +5631,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
-      <selection activeCell="K5" pane="bottomLeft" sqref="K5:L26"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A13" ySplit="3"/>
+      <selection activeCell="F38" pane="bottomLeft" sqref="A37:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5960,7 +5651,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5977,40 +5668,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>32</v>
@@ -6048,16 +5739,16 @@
         <v>89</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6082,20 +5773,14 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="K4">
         <v>0.296</v>
       </c>
       <c r="L4">
         <v>0.296</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6120,20 +5805,14 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="K5">
         <v>0.288</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5">
         <v>0.288</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6158,20 +5837,14 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="K6">
         <v>0.279</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6">
         <v>0.279</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6196,20 +5869,14 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="K7">
         <v>0.27</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7">
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6234,20 +5901,14 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="K8">
         <v>0.261</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8">
         <v>0.261</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6272,20 +5933,14 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="K9">
         <v>0.253</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9">
         <v>0.253</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6310,20 +5965,14 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="K10">
         <v>0.244</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10">
         <v>0.244</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6348,20 +5997,14 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="K11">
         <v>0.235</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11">
         <v>0.235</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6386,20 +6029,14 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="K12">
         <v>0.226</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12">
         <v>0.226</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6424,20 +6061,14 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="K13">
         <v>0.217</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13">
         <v>0.217</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6462,20 +6093,14 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="K14">
         <v>0.214</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14">
         <v>0.214</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6500,20 +6125,14 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="K15">
         <v>0.212</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15">
         <v>0.212</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16">
       <c r="A16">
         <v>13</v>
       </c>
@@ -6538,20 +6157,14 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="K16">
         <v>0.209</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16">
         <v>0.209</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17">
       <c r="A17">
         <v>14</v>
       </c>
@@ -6576,20 +6189,14 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="K17">
         <v>0.205</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17">
         <v>0.205</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18">
       <c r="A18">
         <v>15</v>
       </c>
@@ -6614,20 +6221,14 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
+      <c r="K18">
         <v>0.201</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18">
         <v>0.201</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19">
       <c r="A19">
         <v>16</v>
       </c>
@@ -6652,20 +6253,14 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="9">
+      <c r="K19">
         <v>0.196</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19">
         <v>0.196</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20">
       <c r="A20">
         <v>17</v>
       </c>
@@ -6690,20 +6285,14 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="K20">
         <v>0.19</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20">
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21">
       <c r="A21">
         <v>18</v>
       </c>
@@ -6728,20 +6317,14 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="9">
+      <c r="K21">
         <v>0.184</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21">
         <v>0.184</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22">
       <c r="A22">
         <v>19</v>
       </c>
@@ -6766,20 +6349,14 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="K22">
         <v>0.178</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22">
         <v>0.178</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23">
       <c r="A23">
         <v>20</v>
       </c>
@@ -6804,20 +6381,14 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="K23">
         <v>0.171</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23">
         <v>0.171</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24">
       <c r="A24">
         <v>21</v>
       </c>
@@ -6842,20 +6413,14 @@
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="K24">
         <v>0.163</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24">
         <v>0.163</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -6880,20 +6445,14 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9">
+      <c r="K25">
         <v>0.155</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25">
         <v>0.155</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26">
       <c r="A26">
         <v>23</v>
       </c>
@@ -6918,20 +6477,14 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="K26">
         <v>0.146</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26">
         <v>0.146</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27">
       <c r="A27">
         <v>24</v>
       </c>
@@ -6956,12 +6509,6 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
       <c r="K27">
         <v>0.138</v>
       </c>
@@ -6969,7 +6516,7 @@
         <v>0.138</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28">
       <c r="A28">
         <v>25</v>
       </c>
@@ -6994,12 +6541,6 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
       <c r="K28">
         <v>0.129</v>
       </c>
@@ -7007,7 +6548,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29">
       <c r="A29">
         <v>26</v>
       </c>
@@ -7032,12 +6573,6 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
       <c r="K29">
         <v>0.12</v>
       </c>
@@ -7045,7 +6580,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30">
       <c r="A30">
         <v>27</v>
       </c>
@@ -7070,12 +6605,6 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
       <c r="K30">
         <v>0.11</v>
       </c>
@@ -7083,7 +6612,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31">
       <c r="A31">
         <v>28</v>
       </c>
@@ -7108,12 +6637,6 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
       <c r="K31">
         <v>0.101</v>
       </c>
@@ -7121,7 +6644,7 @@
         <v>0.101</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32">
       <c r="A32">
         <v>29</v>
       </c>
@@ -7146,12 +6669,6 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
       <c r="K32">
         <v>0.041</v>
       </c>
@@ -7159,7 +6676,7 @@
         <v>0.041</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33">
       <c r="A33">
         <v>30</v>
       </c>
@@ -7184,207 +6701,11 @@
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
       <c r="K33">
         <v>0.041</v>
       </c>
       <c r="L33">
         <v>0.041</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F34" t="s">
-        <v>265</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>0.7</v>
-      </c>
-      <c r="L34">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" t="s">
-        <v>265</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0.7</v>
-      </c>
-      <c r="L35">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0.71</v>
-      </c>
-      <c r="L36">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" t="s">
-        <v>250</v>
-      </c>
-      <c r="F37" t="s">
-        <v>265</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0.72</v>
-      </c>
-      <c r="L37">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" t="s">
-        <v>263</v>
-      </c>
-      <c r="E38" t="s">
-        <v>250</v>
-      </c>
-      <c r="F38" t="s">
-        <v>265</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>0.72</v>
-      </c>
-      <c r="L38">
-        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -7395,11 +6716,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
-      <selection activeCell="D19" pane="bottomLeft" sqref="C19:D19"/>
+      <selection activeCell="G23" pane="bottomLeft" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7683,7 +7004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4">
       <c r="A4" t="str">
         <v>Pipe490*8</v>
       </c>
@@ -7699,11 +7020,8 @@
       <c r="E4">
         <v>0.008</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+    </row>
+    <row r="5">
       <c r="A5" t="str">
         <v>Pipe476*8</v>
       </c>
@@ -7720,7 +7038,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6">
       <c r="A6" t="str">
         <v>Pipe461*8</v>
       </c>
@@ -7737,7 +7055,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7">
       <c r="A7" t="str">
         <v>Pipe446*8</v>
       </c>
@@ -7754,7 +7072,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8">
       <c r="A8" t="str">
         <v>Pipe432*8</v>
       </c>
@@ -7771,7 +7089,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9">
       <c r="A9" t="str">
         <v>Pipe418*8</v>
       </c>
@@ -7788,7 +7106,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10">
       <c r="A10" t="str">
         <v>Pipe403*8</v>
       </c>
@@ -7805,7 +7123,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11">
       <c r="A11" t="str">
         <v>Pipe388*8</v>
       </c>
@@ -7822,7 +7140,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12">
       <c r="A12" t="str">
         <v>Pipe374*8</v>
       </c>
@@ -7839,7 +7157,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13">
       <c r="A13" t="str">
         <v>Pipe360*8</v>
       </c>
@@ -7856,7 +7174,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14">
       <c r="A14" t="str">
         <v>Pipe345*8</v>
       </c>
@@ -7873,7 +7191,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15">
       <c r="A15" t="str">
         <v>Pipe332*6</v>
       </c>
@@ -7890,7 +7208,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16">
       <c r="A16" t="str">
         <v>Pipe318*6</v>
       </c>
@@ -7907,7 +7225,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17" t="str">
         <v>Pipe305*6</v>
       </c>
@@ -7924,7 +7242,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18" t="str">
         <v>Pipe292*6</v>
       </c>
@@ -7941,7 +7259,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19" t="str">
         <v>Pipe279*6</v>
       </c>
@@ -7958,7 +7276,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20" t="str">
         <v>Pipe266*6</v>
       </c>
@@ -7975,7 +7293,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21" t="str">
         <v>Pipe252*6</v>
       </c>
@@ -7992,7 +7310,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22" t="str">
         <v>Pipe239*6</v>
       </c>
@@ -8009,7 +7327,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23" t="str">
         <v>Pipe226*6</v>
       </c>
@@ -8026,7 +7344,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24" t="str">
         <v>Pipe212*6</v>
       </c>
@@ -8043,7 +7361,7 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25" t="str">
         <v>Pipe199*8</v>
       </c>
@@ -8060,7 +7378,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26" t="str">
         <v>Pipe186*8</v>
       </c>
@@ -8077,7 +7395,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27" t="str">
         <v>Pipe173*8</v>
       </c>
@@ -8094,7 +7412,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28" t="str">
         <v>Pipe160*8</v>
       </c>
@@ -8111,7 +7429,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29" t="str">
         <v>Pipe146*8</v>
       </c>
@@ -8128,7 +7446,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30" t="str">
         <v>Pipe133*8</v>
       </c>
@@ -8145,7 +7463,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31" t="str">
         <v>Pipe120*8</v>
       </c>
@@ -8162,7 +7480,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32" t="str">
         <v>Pipe48*5</v>
       </c>
@@ -8179,7 +7497,7 @@
         <v>0.005</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33" t="str">
         <v>Pipe48*5</v>
       </c>
@@ -8194,91 +7512,6 @@
       </c>
       <c r="E33">
         <v>0.005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>295</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34">
-        <v>0.2</v>
-      </c>
-      <c r="E34">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>296</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35">
-        <v>0.18</v>
-      </c>
-      <c r="E35">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>297</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36">
-        <v>0.17</v>
-      </c>
-      <c r="E36">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>298</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37">
-        <v>0.15</v>
-      </c>
-      <c r="E37">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>299</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E38">
-        <v>0.01</v>
       </c>
     </row>
   </sheetData>
